--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Thbs2</t>
+  </si>
+  <si>
+    <t>Itga4</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Thbs2</t>
-  </si>
-  <si>
-    <t>Itga4</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H2">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I2">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J2">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N2">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q2">
-        <v>0.102732812128</v>
+        <v>2.791086439413334</v>
       </c>
       <c r="R2">
-        <v>0.9245953091519999</v>
+        <v>25.11977795472</v>
       </c>
       <c r="S2">
-        <v>5.415621274452278E-06</v>
+        <v>0.0001908830586488456</v>
       </c>
       <c r="T2">
-        <v>5.415621274452276E-06</v>
+        <v>0.0001908830586488456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H3">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I3">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J3">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q3">
-        <v>0.047145953824</v>
+        <v>0.1121932946311111</v>
       </c>
       <c r="R3">
-        <v>0.424313584416</v>
+        <v>1.00973965168</v>
       </c>
       <c r="S3">
-        <v>2.485326987987804E-06</v>
+        <v>7.672925831555057E-06</v>
       </c>
       <c r="T3">
-        <v>2.485326987987803E-06</v>
+        <v>7.672925831555057E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H4">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I4">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J4">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N4">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O4">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P4">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q4">
-        <v>64.69443645739202</v>
+        <v>142.8097366768845</v>
       </c>
       <c r="R4">
-        <v>582.2499281165281</v>
+        <v>1285.28763009196</v>
       </c>
       <c r="S4">
-        <v>0.003410405684026456</v>
+        <v>0.009766791510566681</v>
       </c>
       <c r="T4">
-        <v>0.003410405684026455</v>
+        <v>0.00976679151056668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H5">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I5">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J5">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N5">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q5">
-        <v>1.727800435624</v>
+        <v>2.03165515668</v>
       </c>
       <c r="R5">
-        <v>15.550203920616</v>
+        <v>18.28489641012</v>
       </c>
       <c r="S5">
-        <v>9.108202728369538E-05</v>
+        <v>0.0001389453744428971</v>
       </c>
       <c r="T5">
-        <v>9.108202728369537E-05</v>
+        <v>0.0001389453744428971</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H6">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I6">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J6">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N6">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q6">
-        <v>67.28211777569599</v>
+        <v>197.2207729347556</v>
       </c>
       <c r="R6">
-        <v>605.5390599812639</v>
+        <v>1774.9869564128</v>
       </c>
       <c r="S6">
-        <v>0.003546816843310689</v>
+        <v>0.01348797508929482</v>
       </c>
       <c r="T6">
-        <v>0.003546816843310688</v>
+        <v>0.01348797508929482</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H7">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I7">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J7">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N7">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O7">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P7">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q7">
-        <v>87.26428651699202</v>
+        <v>58.90535140569333</v>
       </c>
       <c r="R7">
-        <v>785.378578652928</v>
+        <v>530.14816265124</v>
       </c>
       <c r="S7">
-        <v>0.004600188749554493</v>
+        <v>0.004028550849706839</v>
       </c>
       <c r="T7">
-        <v>0.004600188749554492</v>
+        <v>0.004028550849706838</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H8">
         <v>246.508934</v>
       </c>
       <c r="I8">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J8">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N8">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q8">
-        <v>7.953912044207109</v>
+        <v>90.80764639260533</v>
       </c>
       <c r="R8">
-        <v>71.58520839786399</v>
+        <v>817.268817533448</v>
       </c>
       <c r="S8">
-        <v>0.0004192952026667044</v>
+        <v>0.006210356314069129</v>
       </c>
       <c r="T8">
-        <v>0.0004192952026667044</v>
+        <v>0.006210356314069129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H9">
         <v>246.508934</v>
       </c>
       <c r="I9">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J9">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q9">
-        <v>3.650194735145777</v>
+        <v>3.650194735145778</v>
       </c>
       <c r="R9">
         <v>32.851752616312</v>
       </c>
       <c r="S9">
-        <v>0.000192422185804854</v>
+        <v>0.0002496376772390442</v>
       </c>
       <c r="T9">
-        <v>0.0001924221858048539</v>
+        <v>0.0002496376772390442</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H10">
         <v>246.508934</v>
       </c>
       <c r="I10">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J10">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N10">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O10">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P10">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q10">
-        <v>5008.855950429044</v>
+        <v>4646.296827804957</v>
       </c>
       <c r="R10">
-        <v>45079.7035538614</v>
+        <v>41816.67145024461</v>
       </c>
       <c r="S10">
-        <v>0.2640448196045941</v>
+        <v>0.3177613338511504</v>
       </c>
       <c r="T10">
-        <v>0.264044819604594</v>
+        <v>0.3177613338511504</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H11">
         <v>246.508934</v>
       </c>
       <c r="I11">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J11">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N11">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q11">
-        <v>133.7719897881624</v>
+        <v>66.09964508956199</v>
       </c>
       <c r="R11">
-        <v>1203.947908093462</v>
+        <v>594.896805806058</v>
       </c>
       <c r="S11">
-        <v>0.007051869980157322</v>
+        <v>0.004520570288375163</v>
       </c>
       <c r="T11">
-        <v>0.007051869980157321</v>
+        <v>0.004520570288375163</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H12">
         <v>246.508934</v>
       </c>
       <c r="I12">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J12">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N12">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q12">
-        <v>5209.202744971993</v>
+        <v>6416.55305154217</v>
       </c>
       <c r="R12">
-        <v>46882.82470474794</v>
+        <v>57748.97746387952</v>
       </c>
       <c r="S12">
-        <v>0.274606220001609</v>
+        <v>0.4388295737334455</v>
       </c>
       <c r="T12">
-        <v>0.2746062200016089</v>
+        <v>0.4388295737334454</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H13">
         <v>246.508934</v>
       </c>
       <c r="I13">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J13">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N13">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O13">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P13">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q13">
-        <v>6756.287939357077</v>
+        <v>1916.478202016807</v>
       </c>
       <c r="R13">
-        <v>60806.5914542137</v>
+        <v>17248.30381815127</v>
       </c>
       <c r="S13">
-        <v>0.3561617358932882</v>
+        <v>0.1310683953993563</v>
       </c>
       <c r="T13">
-        <v>0.3561617358932881</v>
+        <v>0.1310683953993563</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H14">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I14">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J14">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N14">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q14">
-        <v>0.0005189053857777777</v>
+        <v>7.391534937578666</v>
       </c>
       <c r="R14">
-        <v>0.004670148472</v>
+        <v>66.52381443820799</v>
       </c>
       <c r="S14">
-        <v>2.735440594329916E-08</v>
+        <v>0.0005055088144426602</v>
       </c>
       <c r="T14">
-        <v>2.735440594329916E-08</v>
+        <v>0.0005055088144426602</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H15">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I15">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J15">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q15">
-        <v>0.0002381351084444444</v>
+        <v>0.2971175114168889</v>
       </c>
       <c r="R15">
-        <v>0.002143215976</v>
+        <v>2.674057602752</v>
       </c>
       <c r="S15">
-        <v>1.25534338325996E-08</v>
+        <v>2.031993655105503E-05</v>
       </c>
       <c r="T15">
-        <v>1.25534338325996E-08</v>
+        <v>2.031993655105503E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H16">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I16">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J16">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N16">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O16">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P16">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q16">
-        <v>0.326772827612</v>
+        <v>378.1979458491716</v>
       </c>
       <c r="R16">
-        <v>2.940955448508</v>
+        <v>3403.781512642543</v>
       </c>
       <c r="S16">
-        <v>1.722602390094747E-05</v>
+        <v>0.02586504654924786</v>
       </c>
       <c r="T16">
-        <v>1.722602390094747E-05</v>
+        <v>0.02586504654924786</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H17">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I17">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J17">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N17">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q17">
-        <v>0.00872715282511111</v>
+        <v>5.380360084751999</v>
       </c>
       <c r="R17">
-        <v>0.078544375426</v>
+        <v>48.42324076276799</v>
       </c>
       <c r="S17">
-        <v>4.600570501874389E-07</v>
+        <v>0.0003679640928016174</v>
       </c>
       <c r="T17">
-        <v>4.600570501874389E-07</v>
+        <v>0.0003679640928016174</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H18">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I18">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J18">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N18">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q18">
-        <v>0.3398432551115555</v>
+        <v>522.2927577513245</v>
       </c>
       <c r="R18">
-        <v>3.058589296004</v>
+        <v>4700.63481976192</v>
       </c>
       <c r="S18">
-        <v>1.791503925803304E-05</v>
+        <v>0.03571972465699377</v>
       </c>
       <c r="T18">
-        <v>1.791503925803304E-05</v>
+        <v>0.03571972465699376</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H19">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I19">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J19">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N19">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O19">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P19">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q19">
-        <v>0.4407735690453334</v>
+        <v>155.9969468437706</v>
       </c>
       <c r="R19">
-        <v>3.966962121408</v>
+        <v>1403.972521593936</v>
       </c>
       <c r="S19">
-        <v>2.323564076844315E-05</v>
+        <v>0.0106686679183176</v>
       </c>
       <c r="T19">
-        <v>2.323564076844314E-05</v>
+        <v>0.0106686679183176</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H20">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I20">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J20">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N20">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q20">
-        <v>0.749220970143111</v>
+        <v>0.05982993986133334</v>
       </c>
       <c r="R20">
-        <v>6.742988731287999</v>
+        <v>0.538469458752</v>
       </c>
       <c r="S20">
-        <v>3.949562891471681E-05</v>
+        <v>4.091783671847981E-06</v>
       </c>
       <c r="T20">
-        <v>3.94956289147168E-05</v>
+        <v>4.091783671847981E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H21">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I21">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J21">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.133268</v>
       </c>
       <c r="O21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q21">
-        <v>0.3438311142337777</v>
+        <v>0.002404983943111111</v>
       </c>
       <c r="R21">
-        <v>3.094480028103999</v>
+        <v>0.021644855488</v>
       </c>
       <c r="S21">
-        <v>1.812526162277194E-05</v>
+        <v>1.644774180332815E-07</v>
       </c>
       <c r="T21">
-        <v>1.812526162277194E-05</v>
+        <v>1.644774180332815E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H22">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I22">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J22">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N22">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O22">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P22">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q22">
-        <v>471.810587498348</v>
+        <v>3.061280308748444</v>
       </c>
       <c r="R22">
-        <v>4246.295287485132</v>
+        <v>27.551522778736</v>
       </c>
       <c r="S22">
-        <v>0.02487177565025957</v>
+        <v>0.0002093616809797589</v>
       </c>
       <c r="T22">
-        <v>0.02487177565025956</v>
+        <v>0.0002093616809797589</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H23">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I23">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J23">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N23">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q23">
-        <v>12.60069000135044</v>
+        <v>0.04355071348799999</v>
       </c>
       <c r="R23">
-        <v>113.406210012154</v>
+        <v>0.3919564213919999</v>
       </c>
       <c r="S23">
-        <v>0.0006642528655700303</v>
+        <v>2.978443547838069E-06</v>
       </c>
       <c r="T23">
-        <v>0.0006642528655700302</v>
+        <v>2.978443547838069E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H24">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I24">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J24">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N24">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q24">
-        <v>490.6823098581461</v>
+        <v>4.227639394275556</v>
       </c>
       <c r="R24">
-        <v>4416.140788723315</v>
+        <v>38.04875454848</v>
       </c>
       <c r="S24">
-        <v>0.02586660971525081</v>
+        <v>0.0002891292534147719</v>
       </c>
       <c r="T24">
-        <v>0.0258666097152508</v>
+        <v>0.0002891292534147718</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H25">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I25">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J25">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N25">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O25">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P25">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q25">
-        <v>636.4104325465813</v>
+        <v>1.262699564709333</v>
       </c>
       <c r="R25">
-        <v>5727.693892919232</v>
+        <v>11.364296082384</v>
       </c>
       <c r="S25">
-        <v>0.03354875435015253</v>
+        <v>8.635632048606343E-05</v>
       </c>
       <c r="T25">
-        <v>0.03354875435015252</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H26">
-        <v>0.218341</v>
-      </c>
-      <c r="I26">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J26">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.09679866666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.290396</v>
-      </c>
-      <c r="O26">
-        <v>0.0004646051906934836</v>
-      </c>
-      <c r="P26">
-        <v>0.0004646051906934836</v>
-      </c>
-      <c r="Q26">
-        <v>0.00704503922622222</v>
-      </c>
-      <c r="R26">
-        <v>0.06340535303599999</v>
-      </c>
-      <c r="S26">
-        <v>3.713834316668251E-07</v>
-      </c>
-      <c r="T26">
-        <v>3.713834316668251E-07</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H27">
-        <v>0.218341</v>
-      </c>
-      <c r="I27">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J27">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M27">
-        <v>0.04442266666666667</v>
-      </c>
-      <c r="N27">
-        <v>0.133268</v>
-      </c>
-      <c r="O27">
-        <v>0.0002132157624531301</v>
-      </c>
-      <c r="P27">
-        <v>0.0002132157624531301</v>
-      </c>
-      <c r="Q27">
-        <v>0.003233096487555555</v>
-      </c>
-      <c r="R27">
-        <v>0.029097868388</v>
-      </c>
-      <c r="S27">
-        <v>1.704346036838471E-07</v>
-      </c>
-      <c r="T27">
-        <v>1.70434603683847E-07</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H28">
-        <v>0.218341</v>
-      </c>
-      <c r="I28">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J28">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>60.95749800000001</v>
-      </c>
-      <c r="N28">
-        <v>182.872494</v>
-      </c>
-      <c r="O28">
-        <v>0.2925781000683996</v>
-      </c>
-      <c r="P28">
-        <v>0.2925781000683995</v>
-      </c>
-      <c r="Q28">
-        <v>4.436507023606</v>
-      </c>
-      <c r="R28">
-        <v>39.928563212454</v>
-      </c>
-      <c r="S28">
-        <v>0.0002338731056185034</v>
-      </c>
-      <c r="T28">
-        <v>0.0002338731056185033</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H29">
-        <v>0.218341</v>
-      </c>
-      <c r="I29">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J29">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1.627997666666667</v>
-      </c>
-      <c r="N29">
-        <v>4.883993</v>
-      </c>
-      <c r="O29">
-        <v>0.007813911001221226</v>
-      </c>
-      <c r="P29">
-        <v>0.007813911001221226</v>
-      </c>
-      <c r="Q29">
-        <v>0.1184862128458889</v>
-      </c>
-      <c r="R29">
-        <v>1.066375915613</v>
-      </c>
-      <c r="S29">
-        <v>6.24607115999102E-06</v>
-      </c>
-      <c r="T29">
-        <v>6.24607115999102E-06</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H30">
-        <v>0.218341</v>
-      </c>
-      <c r="I30">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J30">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>63.39570733333333</v>
-      </c>
-      <c r="N30">
-        <v>190.187122</v>
-      </c>
-      <c r="O30">
-        <v>0.3042807892817216</v>
-      </c>
-      <c r="P30">
-        <v>0.3042807892817216</v>
-      </c>
-      <c r="Q30">
-        <v>4.613960711622443</v>
-      </c>
-      <c r="R30">
-        <v>41.52564640460199</v>
-      </c>
-      <c r="S30">
-        <v>0.0002432276822931347</v>
-      </c>
-      <c r="T30">
-        <v>0.0002432276822931346</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H31">
-        <v>0.218341</v>
-      </c>
-      <c r="I31">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J31">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>82.22364800000001</v>
-      </c>
-      <c r="N31">
-        <v>246.670944</v>
-      </c>
-      <c r="O31">
-        <v>0.3946493786955111</v>
-      </c>
-      <c r="P31">
-        <v>0.394649378695511</v>
-      </c>
-      <c r="Q31">
-        <v>5.984264509322666</v>
-      </c>
-      <c r="R31">
-        <v>53.858380583904</v>
-      </c>
-      <c r="S31">
-        <v>0.0003154640617474596</v>
-      </c>
-      <c r="T31">
-        <v>0.0003154640617474595</v>
+        <v>8.635632048606343E-05</v>
       </c>
     </row>
   </sheetData>
